--- a/C#/Roadmap.xlsx
+++ b/C#/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75EF7AC-769A-DE4E-B199-66723B88C99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB7EEC8-A684-B843-9748-2CD7C35C9E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15420" yWindow="500" windowWidth="20420" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
   </bookViews>
@@ -935,20 +935,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,7 +1290,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G151" sqref="G151"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1323,125 +1323,125 @@
     <col min="27" max="27" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:27" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="6" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:27" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="10" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="12" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2614,6 +2614,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2623,11 +2628,6 @@
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="X1:X2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="P1:T1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="L1:L2"/>

--- a/C#/Roadmap.xlsx
+++ b/C#/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB7EEC8-A684-B843-9748-2CD7C35C9E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB43EA5-BF65-874B-8999-CD172480A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15420" yWindow="500" windowWidth="20420" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
   </bookViews>
@@ -776,9 +776,6 @@
     <t>Unit Tests</t>
   </si>
   <si>
-    <t>Containers Docker</t>
-  </si>
-  <si>
     <t>Dev Ops</t>
   </si>
   <si>
@@ -846,6 +843,9 @@
   </si>
   <si>
     <t>EF 8.0</t>
+  </si>
+  <si>
+    <t>Containers Docker Kubernetes</t>
   </si>
 </sst>
 </file>
@@ -941,11 +941,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1287,10 +1287,10 @@
   <dimension ref="A1:AA165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,39 +1324,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>65</v>
       </c>
       <c r="P1" s="13" t="s">
@@ -1366,30 +1366,30 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+    <row r="2" spans="1:27" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1405,21 +1405,21 @@
       <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="10"/>
       <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1435,20 +1435,20 @@
       <c r="T2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>35490</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>21</v>
@@ -1465,7 +1465,7 @@
         <v>36039</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>26</v>
@@ -1482,7 +1482,7 @@
         <v>37288</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>27</v>
@@ -1542,7 +1542,7 @@
         <v>37712</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>28</v>
@@ -1607,7 +1607,7 @@
         <v>38657</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>29</v>
@@ -1624,7 +1624,7 @@
         <v>39387</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>30</v>
@@ -1684,7 +1684,7 @@
         <v>39661</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -1692,7 +1692,7 @@
         <v>40269</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>31</v>
@@ -1707,7 +1707,7 @@
         <v>96</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -1730,7 +1730,7 @@
         <v>40634</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
         <v>41153</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>32</v>
@@ -1753,7 +1753,7 @@
         <v>100</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>41548</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>33</v>
@@ -1776,7 +1776,7 @@
         <v>101</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,7 @@
         <v>42186</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>34</v>
@@ -1857,7 +1857,7 @@
         <v>42522</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -1865,7 +1865,7 @@
         <v>42795</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>35</v>
@@ -1933,7 +1933,7 @@
         <v>42948</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>49</v>
@@ -1951,7 +1951,7 @@
         <v>123</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -1974,7 +1974,7 @@
         <v>43040</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>48</v>
@@ -2057,7 +2057,7 @@
         <v>43221</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>47</v>
@@ -2130,7 +2130,7 @@
         <v>43556</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>46</v>
@@ -2148,7 +2148,7 @@
         <v>136</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -2236,7 +2236,7 @@
         <v>44136</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>41</v>
@@ -2257,7 +2257,7 @@
         <v>153</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -2350,7 +2350,7 @@
         <v>44501</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>36</v>
@@ -2371,7 +2371,7 @@
         <v>170</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>44866</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>44</v>
@@ -2475,7 +2475,7 @@
         <v>186</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -2553,7 +2553,7 @@
         <v>45231</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>45</v>
@@ -2574,7 +2574,7 @@
         <v>214</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
@@ -2614,11 +2614,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2632,6 +2627,11 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/C#/Roadmap.xlsx
+++ b/C#/Roadmap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB43EA5-BF65-874B-8999-CD172480A997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FE9EFB-2724-4447-BD6C-F4A5EB6C1B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="500" windowWidth="20420" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21040" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="251">
   <si>
     <t>.NET Core</t>
   </si>
@@ -846,6 +846,9 @@
   </si>
   <si>
     <t>Containers Docker Kubernetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -893,12 +896,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -913,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -941,15 +950,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,10 +1297,10 @@
   <dimension ref="A1:AA165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,72 +1334,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="12" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1405,21 +1415,21 @@
       <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="11"/>
       <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1435,13 +1445,13 @@
       <c r="T2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1493,7 +1503,7 @@
       <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1503,12 +1513,12 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1518,17 +1528,17 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1553,7 +1563,7 @@
       <c r="J14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1568,7 +1578,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1588,12 +1598,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1650,7 +1660,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1660,7 +1670,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1803,12 +1813,12 @@
       <c r="J43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="14" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1828,7 +1838,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="14" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1884,12 +1894,12 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="14" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2114,6 +2124,9 @@
       <c r="K89" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="N89" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K90" s="3" t="s">
@@ -2207,12 +2220,12 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K104" s="3" t="s">
+      <c r="K104" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K105" s="3" t="s">
+      <c r="K105" s="14" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2261,7 +2274,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K110" s="3" t="s">
+      <c r="K110" s="14" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2614,6 +2627,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2627,11 +2645,6 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/C#/Roadmap.xlsx
+++ b/C#/Roadmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FE9EFB-2724-4447-BD6C-F4A5EB6C1B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD3A80-D64A-534B-8A88-9977F76B9F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21040" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
   </bookViews>
@@ -950,16 +950,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,10 +1297,10 @@
   <dimension ref="A1:AA165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1334,72 +1334,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="11" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1415,21 +1415,21 @@
       <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="11"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="10"/>
       <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1445,13 +1445,13 @@
       <c r="T2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1503,22 +1503,22 @@
       <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1528,17 +1528,17 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       <c r="J14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1598,12 +1598,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1813,12 +1813,12 @@
       <c r="J43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="K43" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1894,12 +1894,12 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2220,12 +2220,12 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K104" s="14" t="s">
+      <c r="K104" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K105" s="14" t="s">
+      <c r="K105" s="11" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K110" s="14" t="s">
+      <c r="K110" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2627,11 +2627,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2645,6 +2640,11 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/C#/Roadmap.xlsx
+++ b/C#/Roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD3A80-D64A-534B-8A88-9977F76B9F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52374424-AC2A-6B4F-B76A-613B540595E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21040" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -951,13 +951,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1297,10 +1297,10 @@
   <dimension ref="A1:AA165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1334,72 +1334,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="13" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1415,21 +1415,21 @@
       <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="10"/>
       <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1445,13 +1445,13 @@
       <c r="T2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1523,7 +1523,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1568,12 +1568,12 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1583,17 +1583,17 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       <c r="J25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1675,17 +1675,17 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1721,17 +1721,17 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2627,6 +2627,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2640,11 +2645,6 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/C#/Roadmap.xlsx
+++ b/C#/Roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52374424-AC2A-6B4F-B76A-613B540595E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A1E776-7AC4-7C43-9FF2-EB049A56D49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="22640" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -951,13 +951,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1297,10 +1297,10 @@
   <dimension ref="A1:AA165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1334,72 +1334,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="12" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1415,21 +1415,21 @@
       <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="12"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="10"/>
       <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="13"/>
       <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1445,13 +1445,13 @@
       <c r="T2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1650,7 +1650,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       <c r="J35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="11" t="s">
         <v>96</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -1759,7 +1759,7 @@
       <c r="J40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="11" t="s">
         <v>100</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -1782,7 +1782,7 @@
       <c r="J41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="11" t="s">
         <v>101</v>
       </c>
       <c r="M41" s="3" t="s">
@@ -1790,7 +1790,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2627,11 +2627,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2645,6 +2640,11 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/C#/Roadmap.xlsx
+++ b/C#/Roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ronniekleinfeld/Dev/White-Paper/C#/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A1E776-7AC4-7C43-9FF2-EB049A56D49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D38EB8-3B2D-D94C-AE95-870E8FF9907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="22640" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17900" windowHeight="21000" xr2:uid="{3114FC47-B8D6-914C-A468-A9AB4C029413}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="272">
   <si>
     <t>.NET Core</t>
   </si>
@@ -849,6 +849,69 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Vista</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.5 SP1</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.51</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8.1</t>
+  </si>
+  <si>
+    <t>4.7.1</t>
+  </si>
+  <si>
+    <t>4.7.2</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5.2.8</t>
+  </si>
+  <si>
+    <t>RESTful</t>
+  </si>
+  <si>
+    <t>Web API 1</t>
   </si>
 </sst>
 </file>
@@ -951,13 +1014,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -984,9 +1047,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1024,7 +1087,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1130,7 +1193,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1272,7 +1335,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1294,13 +1357,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254746C9-23C8-A249-80C0-0C547F97956A}">
-  <dimension ref="A1:AA165"/>
+  <dimension ref="A1:AA166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E55" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1319,7 +1382,8 @@
     <col min="12" max="12" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.1640625" style="3" customWidth="1"/>
-    <col min="15" max="16" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.83203125" bestFit="1" customWidth="1"/>
@@ -1334,72 +1398,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="13" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1415,21 +1479,21 @@
       <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="10"/>
       <c r="N2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1445,13 +1509,13 @@
       <c r="T2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1506,6 +1570,9 @@
       <c r="K5" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="P5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K6" s="11" t="s">
@@ -1566,6 +1633,9 @@
       <c r="K14" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="P14" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K15" s="11" t="s">
@@ -1577,42 +1647,42 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K17" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K18" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K19" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K20" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K21" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K22" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K23" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>38657</v>
       </c>
@@ -1628,1005 +1698,1081 @@
       <c r="J24" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
+        <v>39022</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>39387</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K26" s="11" t="s">
+      <c r="P26" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K27" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K27" s="11" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K28" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K28" s="11" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K29" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K29" s="11" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K30" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K30" s="11" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K31" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K31" s="11" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K32" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K32" s="11" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K33" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K33" s="11" t="s">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K34" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>39661</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="P35" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>40269</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K36" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K36" s="11" t="s">
+      <c r="P36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K37" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K37" s="11" t="s">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K38" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K38" s="11" t="s">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K39" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>40634</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="Q40" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>41153</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>41548</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K41" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41548</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K42" s="11" t="s">
+      <c r="O42" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K43" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>42186</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="K44" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K44" s="11" t="s">
+      <c r="P44" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K45" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K45" s="3" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K46" s="3" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K47" s="3" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K48" s="11" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K49" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K49" s="3" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K50" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K50" s="3" t="s">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K51" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K51" s="3" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K52" s="3" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K53" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>42522</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>42795</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K55" s="11" t="s">
+      <c r="P55" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K56" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K56" s="11" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K57" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K57" s="3" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K58" s="3" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K59" s="3" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K60" s="3" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K61" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K61" s="3" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K62" s="3" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K63" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K63" s="3" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K64" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>42948</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K65" s="3" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K66" s="3" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K67" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K67" s="3" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K68" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>43040</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K69" s="3" t="s">
+      <c r="P69" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K70" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K70" s="3" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K71" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K71" s="3" t="s">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K72" s="3" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K73" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K73" s="3" t="s">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K74" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K74" s="3" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K75" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K75" s="3" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K76" s="3" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K77" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K77" s="3" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K78" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K78" s="3" t="s">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K79" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K79" s="3" t="s">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K80" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K80" s="3" t="s">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>43221</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F82" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K82" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K82" s="3" t="s">
+      <c r="P82" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K83" s="3" t="s">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K84" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K84" s="3" t="s">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K85" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K85" s="3" t="s">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K86" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K86" s="3" t="s">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K87" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K87" s="3" t="s">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K88" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K88" s="3" t="s">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K89" s="3" t="s">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K90" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N89" s="3" t="s">
+      <c r="N90" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K90" s="3" t="s">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K91" s="3" t="s">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K92" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
         <v>43556</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F93" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K93" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N92" s="3" t="s">
+      <c r="N93" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K93" s="3" t="s">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K94" s="3" t="s">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K95" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K95" s="3" t="s">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K96" s="3" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K96" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K97" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K98" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K99" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K100" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K101" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K102" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K103" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K104" s="3" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K104" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K105" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K106" s="11" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K106" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K107" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K108" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K109" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
         <v>44136</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F110" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N109" s="3" t="s">
+      <c r="N110" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K110" s="11" t="s">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K111" s="11" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K111" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K112" s="3" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K113" s="3" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K114" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K115" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K116" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K117" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K118" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K119" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K120" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K121" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K122" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K123" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K124" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K125" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K126" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K127" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
         <v>44501</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F128" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J128" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K127" s="3" t="s">
+      <c r="K128" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N127" s="3" t="s">
+      <c r="N128" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K128" s="3" t="s">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K129" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K129" s="3" t="s">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K130" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K130" s="3" t="s">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K131" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K131" s="3" t="s">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K132" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K132" s="3" t="s">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K133" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K133" s="3" t="s">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K134" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K134" s="3" t="s">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K135" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K135" s="3" t="s">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K136" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K136" s="3" t="s">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K137" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K137" s="3" t="s">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K138" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K138" s="3" t="s">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K139" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K139" s="3" t="s">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K140" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K140" s="3" t="s">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K141" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K141" s="3" t="s">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K142" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K142" s="3" t="s">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K143" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
         <v>44866</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F144" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="G144" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H144" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I143" s="3" t="s">
+      <c r="I144" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="J144" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K143" s="3" t="s">
+      <c r="K144" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N143" s="3" t="s">
+      <c r="N144" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K144" s="3" t="s">
-        <v>187</v>
+      <c r="P144" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K145" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K146" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K147" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K148" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K149" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K150" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K151" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K152" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K153" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K154" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K155" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K156" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K157" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K158" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
         <v>45231</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E159" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F159" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="G159" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H159" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="I159" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J158" s="3" t="s">
+      <c r="J159" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K158" s="3" t="s">
+      <c r="K159" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N158" s="3" t="s">
+      <c r="N159" s="3" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K159" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K160" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K161" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K162" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K163" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K164" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="165" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K165" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K166" s="3" t="s">
         <v>221</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -2640,11 +2786,6 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
